--- a/secure/26e-Tobias.xlsx
+++ b/secure/26e-Tobias.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Tobias-1012975</t>
+    <t>26e-Tobias-501543</t>
   </si>
   <si>
-    <t>26e-Tobias-541216</t>
+    <t>26e-Tobias-835520</t>
   </si>
   <si>
-    <t>26e-Tobias-611990</t>
+    <t>26e-Tobias-340527</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F6d693d7"/>
+        <fgColor rgb="F3a123a7"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PE503"/>
+  <dimension ref="A1:PN503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -565,11 +565,14 @@
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:430" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>-0.928</v>
       </c>
       <c r="M20" s="4"/>
+      <c r="PN20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -697,11 +700,14 @@
       </c>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:356" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>-0.84</v>
       </c>
       <c r="M42" s="4"/>
+      <c r="MR42" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -1585,14 +1591,11 @@
       </c>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="1:392" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>-0.248</v>
       </c>
       <c r="M190" s="4"/>
-      <c r="OB190" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
@@ -2254,11 +2257,14 @@
       </c>
       <c r="M300" s="4"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>0.196</v>
       </c>
       <c r="M301" s="4"/>
+      <c r="IE301" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
@@ -2536,14 +2542,11 @@
       </c>
       <c r="M347" s="4"/>
     </row>
-    <row r="348" spans="1:421" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>0.384</v>
       </c>
       <c r="M348" s="4"/>
-      <c r="PE348" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
@@ -3193,14 +3196,11 @@
       </c>
       <c r="M456" s="4"/>
     </row>
-    <row r="457" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>0.82</v>
       </c>
       <c r="M457" s="4"/>
-      <c r="FI457" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
